--- a/Doc/Emotion_Hunt_cvs_format.xlsx
+++ b/Doc/Emotion_Hunt_cvs_format.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Emotion-Hunt\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFA0D26-D9C3-4E39-9151-567526D4759D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F76031-761A-48AC-8542-52A58CE3663A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{2A9343B7-FA94-4D50-9C66-E90E19D7ECCE}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="85">
   <si>
     <t>Control</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1537,8 +1537,8 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1589,6 +1589,9 @@
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="G2" s="1" t="s">
         <v>72</v>
       </c>
